--- a/biology/Médecine/Giovanni_Girolamo_Sbaraglia/Giovanni_Girolamo_Sbaraglia.xlsx
+++ b/biology/Médecine/Giovanni_Girolamo_Sbaraglia/Giovanni_Girolamo_Sbaraglia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giovanni Girolamo Sbaraglia, né le 28 octobre 1641[1] à Bologne et mort dans la même ville en juin 1710[2],[1], est un médecin et anatomiste italien du XVIIe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giovanni Girolamo Sbaraglia, né le 28 octobre 1641 à Bologne et mort dans la même ville en juin 1710 est un médecin et anatomiste italien du XVIIe siècle.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lauréat en philosophie et en médecine de l'université de Bologne, où il enseigna la logique et la médecine, Giovanni Girolamo Sbaraglia exerça dans cette même ville, où le théâtre anatomique du palais de l'Archiginnasio conserve une statue de lui[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauréat en philosophie et en médecine de l'université de Bologne, où il enseigna la logique et la médecine, Giovanni Girolamo Sbaraglia exerça dans cette même ville, où le théâtre anatomique du palais de l'Archiginnasio conserve une statue de lui.
 </t>
         </is>
       </c>
